--- a/excel/beep_test.xlsx
+++ b/excel/beep_test.xlsx
@@ -353,7 +353,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -364,7 +364,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -374,10 +374,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -388,10 +388,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -401,13 +401,11 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -521,9 +519,11 @@
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4">
+      <c r="A23" s="1"/>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4">
+      <c r="A24" s="1"/>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4">
